--- a/Alogrithm/바킹독/문제표.xlsx
+++ b/Alogrithm/바킹독/문제표.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\바킹독\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60051901-C9EB-48B2-93A5-4B21FDE70073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2159B-D4EA-44C1-A859-5016CA9B4A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51060" yWindow="3375" windowWidth="15135" windowHeight="10260" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="42645" yWindow="510" windowWidth="23160" windowHeight="13560" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="문제설명" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>문제</t>
   </si>
@@ -207,12 +208,159 @@
   <si>
     <t>두 수의 합</t>
   </si>
+  <si>
+    <t>문제
+정수를 저장하는 스택을 구현한 다음, 입력으로 주어지는 명령을 처리하는 프로그램을 작성하시오.
+명령은 총 다섯 가지이다.
+push X: 정수 X를 스택에 넣는 연산이다.
+pop: 스택에서 가장 위에 있는 정수를 빼고, 그 수를 출력한다. 만약 스택에 들어있는 정수가 없는 경우에는 -1을 출력한다.
+size: 스택에 들어있는 정수의 개수를 출력한다.
+empty: 스택이 비어있으면 1, 아니면 0을 출력한다.
+top: 스택의 가장 위에 있는 정수를 출력한다. 만약 스택에 들어있는 정수가 없는 경우에는 -1을 출력한다.
+입력
+첫째 줄에 주어지는 명령의 수 N (1 ≤ N ≤ 10,000)이 주어진다. 둘째 줄부터 N개의 줄에는 명령이 하나씩 주어진다. 주어지는 정수는 1보다 크거나 같고, 100,000보다 작거나 같다. 문제에 나와있지 않은 명령이 주어지는 경우는 없다.
+출력
+출력해야하는 명령이 주어질 때마다, 한 줄에 하나씩 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문제
+나코더 기장 재민이는 동아리 회식을 준비하기 위해서 장부를 관리하는 중이다.
+재현이는 재민이를 도와서 돈을 관리하는 중인데, 애석하게도 항상 정신없는 재현이는 돈을 실수로 잘못 부르는 사고를 치기 일쑤였다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>재현이는 잘못된 수를 부를 때마다 0을 외쳐서,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가장 최근에 재민이가 쓴 수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 지우게 시킨다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+재민이는 이렇게 모든 수를 받아 적은 후 그 수의 합을 알고 싶어 한다. 재민이를 도와주자!
+입력
+첫 번째 줄에 정수 K가 주어진다. (1 ≤ K ≤ 100,000)
+이후 K개의 줄에 정수가 1개씩 주어진다. 정수는 0에서 1,000,000 사이의 값을 가지며, 정수가 "0" 일 경우에는 가장 최근에 쓴 수를 지우고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아닐 경우 해당 수를 쓴다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+정수가 "0"일 경우에 지울 수 있는 수가 있음을 보장할 수 있다.
+출력
+재민이가 최종적으로 적어 낸 수의 합을 출력한다. 최종적으로 적어낸 수의 합은 231-1보다 작거나 같은 정수이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문제
+스택 (stack)은 기본적인 자료구조 중 하나로, 컴퓨터 프로그램을 작성할 때 자주 이용되는 개념이다. 스택은 자료를 넣는 (push) 입구와 자료를 뽑는 (pop) 입구가 같아 제일 나중에 들어간 자료가 제일 먼저 나오는 (LIFO, Last in First out) 특성을 가지고 있다.
+1부터 n까지의 수를 스택에 넣었다가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뽑아 늘어놓음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로써, 하나의 수열을 만들 수 있다. 이때, 스택에 push하는 순서는 반드시 오름차순을 지키도록 한다고 하자. 임의의 수열이 주어졌을 때 스택을 이용해 그 수열을 만들 수 있는지 없는지, 있다면 어떤 순서로 push와 pop 연산을 수행해야 하는지를 알아낼 수 있다. 이를 계산하는 프로그램을 작성하라.
+입력
+첫 줄에 n (1 ≤ n ≤ 100,000)이 주어진다. 둘째 줄부터 n개의 줄에는 수열을 이루는 1이상 n이하의 정수가 하나씩 순서대로 주어진다. 물론 같은 정수가 두 번 나오는 일은 없다.
+출력
+입력된 수열을 만들기 위해 필요한 연산을 한 줄에 한 개씩 출력한다. push연산은 +로, pop 연산은 -로 표현하도록 한다. 불가능한 경우 NO를 출력한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제
+KOI 통신연구소는 레이저를 이용한 새로운 비밀 통신 시스템 개발을 위한 실험을 하고 있다. 실험을 위하여 일직선 위에 N개의 높이가 서로 다른 탑을 수평 직선의 왼쪽부터 오른쪽 방향으로 차례로 세우고, 각 탑의 꼭대기에 레이저 송신기를 설치하였다. 모든 탑의 레이저 송신기는 레이저 신호를 지표면과 평행하게 수평 직선의 왼쪽 방향으로 발사하고, 탑의 기둥 모두에는 레이저 신호를 수신하는 장치가 설치되어 있다. 하나의 탑에서 발사된 레이저 신호는 가장 먼저 만나는 단 하나의 탑에서만 수신이 가능하다. 
+예를 들어 높이가 6, 9, 5, 7, 4인 다섯 개의 탑이 수평 직선에 일렬로 서 있고, 모든 탑에서는 주어진 탑 순서의 반대 방향(왼쪽 방향)으로 동시에 레이저 신호를 발사한다고 하자. 그러면, 높이가 4인 다섯 번째 탑에서 발사한 레이저 신호는 높이가 7인 네 번째 탑이 수신을 하고, 높이가 7인 네 번째 탑의 신호는 높이가 9인 두 번째 탑이, 높이가 5인 세 번째 탑의 신호도 높이가 9인 두 번째 탑이 수신을 한다. 높이가 9인 두 번째 탑과 높이가 6인 첫 번째 탑이 보낸 레이저 신호는 어떤 탑에서도 수신을 하지 못한다.
+탑들의 개수 N과 탑들의 높이가 주어질 때, 각각의 탑에서 발사한 레이저 신호를 어느 탑에서 수신하는지를 알아내는 프로그램을 작성하라. 
+입력
+첫째 줄에 탑의 수를 나타내는 정수 N이 주어진다. N은 1 이상 500,000 이하이다. 둘째 줄에는 N개의 탑들의 높이가 직선상에 놓인 순서대로 하나의 빈칸을 사이에 두고 주어진다. 탑들의 높이는 1 이상 100,000,000 이하의 정수이다.
+출력
+첫째 줄에 주어진 탑들의 순서대로 각각의 탑들에서 발사한 레이저 신호를 수신한 탑들의 번호를 하나의 빈칸을 사이에 두고 출력한다. 만약 레이저 신호를 수신하는 탑이 존재하지 않으면 0을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +411,24 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -341,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,6 +540,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D9F15-9831-49A1-871E-5AD7FCD238C8}">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -1596,4 +1765,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D535141-E4D6-4237-9B02-ED374A4645D6}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="98.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10828</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="340" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>10773</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="272" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1874</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="391" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2493</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Alogrithm/바킹독/문제표.xlsx
+++ b/Alogrithm/바킹독/문제표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\바킹독\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E2159B-D4EA-44C1-A859-5016CA9B4A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B85A1-5B74-48E7-9EEE-B449148F4A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42645" yWindow="510" windowWidth="23160" windowHeight="13560" activeTab="1" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="43155" yWindow="1020" windowWidth="23160" windowHeight="13560" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>문제</t>
   </si>
@@ -353,6 +353,177 @@
 첫째 줄에 탑의 수를 나타내는 정수 N이 주어진다. N은 1 이상 500,000 이하이다. 둘째 줄에는 N개의 탑들의 높이가 직선상에 놓인 순서대로 하나의 빈칸을 사이에 두고 주어진다. 탑들의 높이는 1 이상 100,000,000 이하의 정수이다.
 출력
 첫째 줄에 주어진 탑들의 순서대로 각각의 탑들에서 발사한 레이저 신호를 수신한 탑들의 번호를 하나의 빈칸을 사이에 두고 출력한다. 만약 레이저 신호를 수신하는 탑이 존재하지 않으면 0을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">문제
+KOI 통신연구소는 레이저를 이용한 새로운 비밀 통신 시스템 개발을 위한 실험을 하고 있다. 실험을 위하여 일직선 위에 N개의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높이가 서로 다른 탑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 수평 직선의 왼쪽부터 오른쪽 방향으로 차례로 세우고, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각 탑의 꼭대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>레이저 송신기를 설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하였다. 모든 탑의 레이저 송신기는 레이저 신호를 지표면과 평행하게 수평 직선의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>왼쪽 방향으로 발사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하고, 탑의 기둥 모두에는 레이저 신호를 수신하는 장치가 설치되어 있다. 하나의 탑에서 발사된 레이저 신호는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가장 먼저 만나는 단 하나의 탑에서만 수신이 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하다. 
+예를 들어 높이가 6, 9, 5, 7, 4인 다섯 개의 탑이 수평 직선에 일렬로 서 있고, 모든 탑에서는 주어진 탑 순서의 반대 방향(왼쪽 방향)으로 동시에 레이저 신호를 발사한다고 하자. 그러면, 높이가 4인 다섯 번째 탑에서 발사한 레이저 신호는 높이가 7인 네 번째 탑이 수신을 하고, 높이가 7인 네 번째 탑의 신호는 높이가 9인 두 번째 탑이, 높이가 5인 세 번째 탑의 신호도 높이가 9인 두 번째 탑이 수신을 한다. 높이가 9인 두 번째 탑과 높이가 6인 첫 번째 탑이 보낸 레이저 신호는 어떤 탑에서도 수신을 하지 못한다.
+탑들의 개수 N과 탑들의 높이가 주어질 때, 각각의 탑에서 발사한 레이저 신호를 어느 탑에서 수신하는지를 알아내는 프로그램을 작성하라. 
+입력
+첫째 줄에 탑의 수를 나타내는 정수 N이 주어진다. N은 1 이상 500,000 이하이다. 둘째 줄에는 N개의 탑들의 높이가 직선상에 놓인 순서대로 하나의 빈칸을 사이에 두고 주어진다. 탑들의 높이는 1 이상 100,000,000 이하의 정수이다.
+출력
+첫째 줄에 주어진 탑들의 순서대로 각각의 탑들에서 발사한 레이저 신호를 수신한 탑들의 번호를 하나의 빈칸을 사이에 두고 출력한다. 만약 레이저 신호를 수신하는 탑이 존재하지 않으면 0을 출력한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터</t>
+  </si>
+  <si>
+    <t>실패출처다국어분류</t>
+  </si>
+  <si>
+    <t>키로거</t>
+  </si>
+  <si>
+    <t>요세푸스 문제</t>
+  </si>
+  <si>
+    <t>연결리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
+  </si>
+  <si>
+    <t>제로</t>
+  </si>
+  <si>
+    <t>스택 수열</t>
+  </si>
+  <si>
+    <t>탑</t>
+  </si>
+  <si>
+    <t>옥상 정원 꾸미기</t>
+  </si>
+  <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -859,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D9F15-9831-49A1-871E-5AD7FCD238C8}">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1463,7 +1637,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="32" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="33" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>0</v>
@@ -1648,6 +1826,228 @@
       </c>
       <c r="H41" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="2">
+        <v>1406</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8138</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44519</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.27217000000000002</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B46" s="6">
+        <v>5397</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="7">
+        <v>4300</v>
+      </c>
+      <c r="F46" s="7">
+        <v>25587</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.24273</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="2">
+        <v>1158</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="3">
+        <v>14588</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41865</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.48465000000000003</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B49" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B51" s="2">
+        <v>10828</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3">
+        <v>27221</v>
+      </c>
+      <c r="F51" s="3">
+        <v>98883</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.38768999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="6">
+        <v>10773</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="7">
+        <v>12291</v>
+      </c>
+      <c r="F52" s="7">
+        <v>21668</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.68245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" s="2">
+        <v>1874</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>13056</v>
+      </c>
+      <c r="F53" s="3">
+        <v>53653</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="6">
+        <v>2493</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="7">
+        <v>4938</v>
+      </c>
+      <c r="F54" s="7">
+        <v>25636</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.29510999999999998</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="2">
+        <v>6198</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="3">
+        <v>951</v>
+      </c>
+      <c r="F55" s="3">
+        <v>3518</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.35209000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1761,18 +2161,42 @@
     <hyperlink ref="C41" r:id="rId106" display="https://www.acmicpc.net/problem/3273" xr:uid="{089719EE-DDEA-418C-905E-21D8A19943C4}"/>
     <hyperlink ref="E41" r:id="rId107" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=3273&amp;result_id=4" xr:uid="{D8AA1A0C-2BC3-45B1-BDF6-D633F5A6A593}"/>
     <hyperlink ref="F41" r:id="rId108" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=3273" xr:uid="{D12094E5-8CAF-4542-97A1-77D56053FD43}"/>
+    <hyperlink ref="C45" r:id="rId109" display="https://www.acmicpc.net/problem/1406" xr:uid="{F1364943-0881-4335-9F59-E4DCF84A0223}"/>
+    <hyperlink ref="E45" r:id="rId110" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1406&amp;result_id=4" xr:uid="{C03CFBC0-566C-4F89-94B2-F2960A9E436D}"/>
+    <hyperlink ref="F45" r:id="rId111" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1406" xr:uid="{634BA73B-B957-4DD1-9B55-F129F74E8603}"/>
+    <hyperlink ref="C46" r:id="rId112" display="https://www.acmicpc.net/problem/5397" xr:uid="{DAEEDB50-D64C-43AC-ACB7-D6E0A3466F1C}"/>
+    <hyperlink ref="E46" r:id="rId113" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=5397&amp;result_id=4" xr:uid="{292C8FAA-0273-428E-B9C4-CA64F52F6261}"/>
+    <hyperlink ref="F46" r:id="rId114" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=5397" xr:uid="{B321D317-2379-48FA-A70F-57B95196BE84}"/>
+    <hyperlink ref="C47" r:id="rId115" display="https://www.acmicpc.net/problem/1158" xr:uid="{9082AF51-9276-4FCB-B2F2-1741257B0628}"/>
+    <hyperlink ref="E47" r:id="rId116" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1158&amp;result_id=4" xr:uid="{8B89F49C-0419-45E0-8512-8CFDEC94B3AE}"/>
+    <hyperlink ref="F47" r:id="rId117" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1158" xr:uid="{55AB55A2-EEBF-47DE-A851-B85D64EAB0E7}"/>
+    <hyperlink ref="C51" r:id="rId118" display="https://www.acmicpc.net/problem/10828" xr:uid="{9127DDF6-4FD6-42A3-AD2A-73ED1D87689F}"/>
+    <hyperlink ref="E51" r:id="rId119" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=10828&amp;result_id=4" xr:uid="{5DA515A3-FEEF-463D-B788-1ACF3BD64B33}"/>
+    <hyperlink ref="F51" r:id="rId120" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=10828" xr:uid="{78ABA0E4-C652-4058-8070-B0180EF9AF66}"/>
+    <hyperlink ref="C52" r:id="rId121" display="https://www.acmicpc.net/problem/10773" xr:uid="{BC9A551E-F5E2-45F1-A09E-629B85E02287}"/>
+    <hyperlink ref="E52" r:id="rId122" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=10773&amp;result_id=4" xr:uid="{64148E0C-9EF1-4DA4-BFD8-6EE1357703F2}"/>
+    <hyperlink ref="F52" r:id="rId123" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=10773" xr:uid="{1B0AE98E-2FC2-4CAB-814B-06D7A4CB838E}"/>
+    <hyperlink ref="C53" r:id="rId124" display="https://www.acmicpc.net/problem/1874" xr:uid="{BFEEA1F5-B19C-4B99-8317-5B63A12356B6}"/>
+    <hyperlink ref="E53" r:id="rId125" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1874&amp;result_id=4" xr:uid="{0F842CE8-CCBB-4042-A8C3-BCEDD0A775E1}"/>
+    <hyperlink ref="F53" r:id="rId126" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=1874" xr:uid="{FC6007D6-DE9E-40B0-8F50-E0299DEE65B6}"/>
+    <hyperlink ref="C54" r:id="rId127" display="https://www.acmicpc.net/problem/2493" xr:uid="{A91D2D74-35B5-463A-9F74-86C733EE27FC}"/>
+    <hyperlink ref="E54" r:id="rId128" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=2493&amp;result_id=4" xr:uid="{5BAAFC8D-1256-491E-81B2-A3DE1F7A7CF4}"/>
+    <hyperlink ref="F54" r:id="rId129" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=2493" xr:uid="{6555E96B-DC41-4082-8844-52AB9BBB1EF2}"/>
+    <hyperlink ref="C55" r:id="rId130" display="https://www.acmicpc.net/problem/6198" xr:uid="{EB509C15-89C4-4C31-9A9B-89FD8758C71D}"/>
+    <hyperlink ref="E55" r:id="rId131" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=6198&amp;result_id=4" xr:uid="{3ADB45C6-0356-47D4-819A-27CB2FC0BA15}"/>
+    <hyperlink ref="F55" r:id="rId132" display="https://www.acmicpc.net/status?from_problem=1&amp;problem_id=6198" xr:uid="{4B9A4AE1-0CAE-46F9-951A-5929D1E4769F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId133"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D535141-E4D6-4237-9B02-ED374A4645D6}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1812,6 +2236,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="391" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2493</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Alogrithm/바킹독/문제표.xlsx
+++ b/Alogrithm/바킹독/문제표.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eg\Desktop\development\Study\Alogrithm\바킹독\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehdnj\OneDrive\바탕 화면\developer\Study\Alogrithm\바킹독\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59B85A1-5B74-48E7-9EEE-B449148F4A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1CC4DD-088B-4D37-B547-75C792A542BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43155" yWindow="1020" windowWidth="23160" windowHeight="13560" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
+    <workbookView xWindow="30390" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="문제설명" sheetId="2" r:id="rId2"/>
+    <sheet name="시뮬레이션" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
   <si>
     <t>문제</t>
   </si>
@@ -174,10 +175,6 @@
       </rPr>
       <t>메모</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건 잘 읽기-두 수의 다름같음여부가 나와있지 않을 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +521,45 @@
   </si>
   <si>
     <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시
+https://www.acmicpc.net/problem/15683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회</t>
+  </si>
+  <si>
+    <t>4회</t>
+  </si>
+  <si>
+    <t>5회</t>
+  </si>
+  <si>
+    <t>6회</t>
+  </si>
+  <si>
+    <t>1. 조건 잘 읽기
+-두 수가 같음, 역순으로 입력이 허용되는 것 유의
+-변수의 크기제한 부등호 조건을 통해 long long 타입인것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +753,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,17 +1077,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D9F15-9831-49A1-871E-5AD7FCD238C8}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1000</v>
       </c>
@@ -1088,7 +1131,7 @@
         <v>0.43673000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <v>2557</v>
       </c>
@@ -1108,7 +1151,7 @@
         <v>0.42026000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -1128,7 +1171,7 @@
         <v>0.34854000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <v>10869</v>
       </c>
@@ -1148,7 +1191,7 @@
         <v>0.52283000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>10871</v>
       </c>
@@ -1168,7 +1211,7 @@
         <v>0.55849000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>9498</v>
       </c>
@@ -1188,7 +1231,7 @@
         <v>0.57513999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>2752</v>
       </c>
@@ -1208,7 +1251,7 @@
         <v>0.62226000000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>2753</v>
       </c>
@@ -1228,7 +1271,7 @@
         <v>0.54774999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>2480</v>
       </c>
@@ -1248,7 +1291,7 @@
         <v>0.55769999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>2490</v>
       </c>
@@ -1268,7 +1311,7 @@
         <v>0.58223000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>2562</v>
       </c>
@@ -1288,7 +1331,7 @@
         <v>0.48849999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>2576</v>
       </c>
@@ -1308,7 +1351,7 @@
         <v>0.53849000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>2587</v>
       </c>
@@ -1328,7 +1371,7 @@
         <v>0.67839000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>2309</v>
       </c>
@@ -1348,10 +1391,10 @@
         <v>0.43757000000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>10093</v>
       </c>
@@ -1370,11 +1413,11 @@
       <c r="G17" s="5">
         <v>0.23197999999999999</v>
       </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H17" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>2577</v>
       </c>
@@ -1394,7 +1437,7 @@
         <v>0.60526999999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>1267</v>
       </c>
@@ -1414,7 +1457,7 @@
         <v>0.40303</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
         <v>10804</v>
       </c>
@@ -1434,7 +1477,7 @@
         <v>0.66947999999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>15552</v>
       </c>
@@ -1454,7 +1497,7 @@
         <v>0.46877000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
         <v>2438</v>
       </c>
@@ -1474,7 +1517,7 @@
         <v>0.62456999999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>2439</v>
       </c>
@@ -1494,7 +1537,7 @@
         <v>0.57772999999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
         <v>2440</v>
       </c>
@@ -1514,7 +1557,7 @@
         <v>0.67452000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>2441</v>
       </c>
@@ -1534,7 +1577,7 @@
         <v>0.73846999999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
         <v>2442</v>
       </c>
@@ -1554,7 +1597,7 @@
         <v>0.57218999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>2443</v>
       </c>
@@ -1574,7 +1617,7 @@
         <v>0.75155000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>2444</v>
       </c>
@@ -1594,7 +1637,7 @@
         <v>0.73018000000000005</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>2445</v>
       </c>
@@ -1614,7 +1657,7 @@
         <v>0.73839999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
         <v>2446</v>
       </c>
@@ -1634,15 +1677,15 @@
         <v>0.57662000000000002</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1662,12 +1705,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
         <v>10808</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
@@ -1682,12 +1725,12 @@
         <v>0.69828999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>10807</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>9</v>
@@ -1702,7 +1745,7 @@
         <v>0.72667999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="2">
         <v>2577</v>
       </c>
@@ -1722,15 +1765,15 @@
         <v>0.60528000000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
         <v>11328</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E37" s="7">
         <v>921</v>
@@ -1742,15 +1785,15 @@
         <v>0.41282000000000002</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="2">
         <v>13300</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>28</v>
@@ -1765,12 +1808,12 @@
         <v>0.61577000000000004</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6">
         <v>1475</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>30</v>
@@ -1785,12 +1828,12 @@
         <v>0.38966000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2">
         <v>1919</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>30</v>
@@ -1805,15 +1848,15 @@
         <v>0.62185000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
         <v>3273</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="7">
         <v>1608</v>
@@ -1825,15 +1868,15 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
         <v>0</v>
       </c>
@@ -1853,15 +1896,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="2">
         <v>1406</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="E45" s="3">
         <v>8138</v>
@@ -1873,18 +1916,18 @@
         <v>0.27217000000000002</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
         <v>5397</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="7">
         <v>4300</v>
@@ -1896,15 +1939,15 @@
         <v>0.24273</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="2">
         <v>1158</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>30</v>
@@ -1919,15 +1962,15 @@
         <v>0.48465000000000003</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>0</v>
       </c>
@@ -1947,12 +1990,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="2">
         <v>10828</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>9</v>
@@ -1967,12 +2010,12 @@
         <v>0.38768999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
         <v>10773</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>11</v>
@@ -1987,12 +2030,12 @@
         <v>0.68245</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="2">
         <v>1874</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>9</v>
@@ -2007,12 +2050,12 @@
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
         <v>2493</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>28</v>
@@ -2027,18 +2070,18 @@
         <v>0.29510999999999998</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="2">
         <v>6198</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="3">
         <v>951</v>
@@ -2195,53 +2238,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D535141-E4D6-4237-9B02-ED374A4645D6}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="98.9140625" customWidth="1"/>
+    <col min="2" max="2" width="98.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="168" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10828</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="340" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10773</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="272" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1874</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="391" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2493</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="391" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2493</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2249,4 +2292,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4D8D19-5062-4AAC-B307-117DDEDB3761}">
+  <dimension ref="B3:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="121" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>15683</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://www.acmicpc.net/problem/15683" xr:uid="{804B13B2-FDD2-4C5E-B5F6-090DA05AF67C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Alogrithm/바킹독/문제표.xlsx
+++ b/Alogrithm/바킹독/문제표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehdnj\OneDrive\바탕 화면\developer\Study\Alogrithm\바킹독\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1CC4DD-088B-4D37-B547-75C792A542BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C308CE-CB68-4B24-B1A0-75E97F2065E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30390" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{6794A2A4-3033-4DE6-AD10-0E16310953BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>문제</t>
   </si>
@@ -562,12 +562,52 @@
 -변수의 크기제한 부등호 조건을 통해 long long 타입인것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 알파벳 개수는 상수처리할 것. 
+   - cont int MAX = 'z'-'a'+1;
+2. 입력값이 두 쌍을 이루고 그 둘이 같은 length를 가지고 있더라도
+length가 다른 경우가 없는지도 생각할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. CHECK배열에 기록만 잘하면 이중for문을 사용할 필요없음.O(n)만에 가능함.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.너무 큰 배열 선언시 콘솔이 동작하지 않음.(-&gt; 전역변수로 선언할 것)
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 조건에서 서로 다른 키라고 함(조건 놓쳤음 ㅠㅠ)
+2. 두 스파이의 키의 합이 어떤 두 난쟁이 키의 합과 일치하는 경우가 생길 수 있기 때문에 이중for문에서 break보다는 return문이 적절함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +672,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -714,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +806,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D9F15-9831-49A1-871E-5AD7FCD238C8}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1422,7 @@
         <v>0.67839000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>2309</v>
       </c>
@@ -1390,8 +1441,8 @@
       <c r="G16" s="9">
         <v>0.43757000000000001</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
+      <c r="H16" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1765,7 +1816,7 @@
         <v>0.60528000000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
         <v>11328</v>
       </c>
@@ -1784,8 +1835,8 @@
       <c r="G37" s="9">
         <v>0.41282000000000002</v>
       </c>
-      <c r="H37" t="s">
-        <v>43</v>
+      <c r="H37" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1848,7 +1899,7 @@
         <v>0.62185000000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
         <v>3273</v>
       </c>
@@ -1867,8 +1918,8 @@
       <c r="G41" s="9">
         <v>0.40150000000000002</v>
       </c>
-      <c r="H41" t="s">
-        <v>43</v>
+      <c r="H41" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2091,6 +2142,9 @@
       </c>
       <c r="G55" s="5">
         <v>0.35209000000000001</v>
+      </c>
+      <c r="H55" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
